--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360E6A6B-6E13-FF43-811B-D85DE96E6C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9DCB8-90E7-D349-B52A-434E5346C578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16280" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="231">
   <si>
     <t>tract</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Wyndhams, Arvada, CO</t>
   </si>
   <si>
-    <t>Impact of employement rate on household income</t>
-  </si>
-  <si>
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
@@ -639,9 +636,6 @@
   </si>
   <si>
     <t>R Square</t>
-  </si>
-  <si>
-    <t>Household Income = -42826.304 + 111888.601(employement rate)</t>
   </si>
   <si>
     <t>Adjusted R Square</t>
@@ -719,16 +713,25 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>Impact of employement rate, job density, and rent on household income</t>
-  </si>
-  <si>
-    <t>P-Value: Employement Rate and Rent are less than .05, so these are significant variables. Job Density is not less than .05, so this is not a significant variable</t>
-  </si>
-  <si>
     <t>R Squared: 0.4479 so only 44.79% of the data fits the regression model</t>
   </si>
   <si>
-    <t xml:space="preserve"> Household Income = -46877.601 + 0.021(Job Density + 102238.347(Employement Rate) + 9.877(Rent)</t>
+    <t xml:space="preserve"> Household Income = -46877.601 + 0.021(Job Density) + 102238.347(Employement Rate) + 9.877(Rent)</t>
+  </si>
+  <si>
+    <t>Household Income = -42826.304 + 111888.601(employment rate)</t>
+  </si>
+  <si>
+    <t>Impact of employment rate on household income</t>
+  </si>
+  <si>
+    <t>P-Value: Employment Rate and Rent are less than .05, so these are significant variables. Job Density is not less than .05, so this is not a significant variable</t>
+  </si>
+  <si>
+    <t>Impact of employment rate, job density, and rent on household income</t>
+  </si>
+  <si>
+    <t>Employment Rate</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Income and Employement Rates in Colorado</a:t>
+              <a:t> Income and Employment Rates in Colorado</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3354,7 +3357,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Employement</a:t>
+                  <a:t>Employment</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -23528,7 +23531,7 @@
   <dimension ref="A1:F374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23540,7 +23543,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23551,7 +23554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -23974,7 +23977,7 @@
         <v>51448</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>8005084500</v>
       </c>
@@ -24158,7 +24161,7 @@
         <v>31284</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>8031001701</v>
       </c>
@@ -24181,7 +24184,7 @@
         <v>50892</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>8031000902</v>
       </c>
@@ -24204,7 +24207,7 @@
         <v>33200</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>8031000903</v>
       </c>
@@ -24227,7 +24230,7 @@
         <v>30446</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>8059010603</v>
       </c>
@@ -24250,7 +24253,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>8059010604</v>
       </c>
@@ -24273,7 +24276,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>8059011729</v>
       </c>
@@ -24296,7 +24299,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8059011731</v>
       </c>
@@ -24319,7 +24322,7 @@
         <v>52575</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8059011730</v>
       </c>
@@ -24342,7 +24345,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>8031011903</v>
       </c>
@@ -24365,7 +24368,7 @@
         <v>47993</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>8031011902</v>
       </c>
@@ -24388,7 +24391,7 @@
         <v>48548</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>8059010502</v>
       </c>
@@ -24411,7 +24414,7 @@
         <v>47758</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>8031003901</v>
       </c>
@@ -24434,7 +24437,7 @@
         <v>64503</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>8059011701</v>
       </c>
@@ -24503,7 +24506,7 @@
         <v>46254</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>8031000301</v>
       </c>
@@ -24526,7 +24529,7 @@
         <v>35131</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>8031000102</v>
       </c>
@@ -24549,7 +24552,7 @@
         <v>37336</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>8001008549</v>
       </c>
@@ -24572,7 +24575,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>8001008523</v>
       </c>
@@ -24595,7 +24598,7 @@
         <v>48233</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>8014031100</v>
       </c>
@@ -24618,7 +24621,7 @@
         <v>60651</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>8014030300</v>
       </c>
@@ -24641,7 +24644,7 @@
         <v>56509</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>8014031200</v>
       </c>
@@ -24664,7 +24667,7 @@
         <v>52987</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>8014030200</v>
       </c>
@@ -24687,7 +24690,7 @@
         <v>48476</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>8014030000</v>
       </c>
@@ -24710,7 +24713,7 @@
         <v>47387</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>8014030100</v>
       </c>
@@ -24733,7 +24736,7 @@
         <v>50393</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>8014030800</v>
       </c>
@@ -24756,7 +24759,7 @@
         <v>46521</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>8059009815</v>
       </c>
@@ -24779,7 +24782,7 @@
         <v>56018</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>8059009836</v>
       </c>
@@ -24802,7 +24805,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>8031002701</v>
       </c>
@@ -24825,7 +24828,7 @@
         <v>33125</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>8059011727</v>
       </c>
@@ -24848,7 +24851,7 @@
         <v>57899</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>8059011728</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>56195</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>8005084200</v>
       </c>
@@ -24894,7 +24897,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>8005084100</v>
       </c>
@@ -24917,7 +24920,7 @@
         <v>49208</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>8005086200</v>
       </c>
@@ -24940,7 +24943,7 @@
         <v>51455</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>8005085400</v>
       </c>
@@ -24963,7 +24966,7 @@
         <v>54153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>8005081700</v>
       </c>
@@ -24986,7 +24989,7 @@
         <v>64057</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>8005085500</v>
       </c>
@@ -25009,7 +25012,7 @@
         <v>60692</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>8031001702</v>
       </c>
@@ -25032,7 +25035,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>8031002601</v>
       </c>
@@ -25055,7 +25058,7 @@
         <v>39156</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>8031002702</v>
       </c>
@@ -25078,7 +25081,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>8031003101</v>
       </c>
@@ -25101,7 +25104,7 @@
         <v>29544</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>8031001800</v>
       </c>
@@ -25124,7 +25127,7 @@
         <v>30442</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>8031003102</v>
       </c>
@@ -25147,7 +25150,7 @@
         <v>25385</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>8031002602</v>
       </c>
@@ -25170,7 +25173,7 @@
         <v>39892</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>8031002802</v>
       </c>
@@ -25193,7 +25196,7 @@
         <v>34940</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>8031001901</v>
       </c>
@@ -25216,7 +25219,7 @@
         <v>26139</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>8031003703</v>
       </c>
@@ -25239,7 +25242,7 @@
         <v>33474</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>8031002703</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>31295</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>8005082100</v>
       </c>
@@ -25285,7 +25288,7 @@
         <v>46701</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>8005082000</v>
       </c>
@@ -25308,7 +25311,7 @@
         <v>36111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>8031000201</v>
       </c>
@@ -25331,7 +25334,7 @@
         <v>33421</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>8005081800</v>
       </c>
@@ -25354,7 +25357,7 @@
         <v>34728</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>8031003202</v>
       </c>
@@ -25377,7 +25380,7 @@
         <v>48252</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>8005081000</v>
       </c>
@@ -25400,7 +25403,7 @@
         <v>34552</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>8005081100</v>
       </c>
@@ -25423,7 +25426,7 @@
         <v>36681</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>8059010206</v>
       </c>
@@ -25446,7 +25449,7 @@
         <v>50715</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>8001008709</v>
       </c>
@@ -25469,7 +25472,7 @@
         <v>31397</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>8001008901</v>
       </c>
@@ -25492,7 +25495,7 @@
         <v>34439</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>8001008802</v>
       </c>
@@ -25515,7 +25518,7 @@
         <v>31155</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>8001008705</v>
       </c>
@@ -25538,7 +25541,7 @@
         <v>33927</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>8001008801</v>
       </c>
@@ -25561,7 +25564,7 @@
         <v>32468</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>8001008706</v>
       </c>
@@ -25584,7 +25587,7 @@
         <v>31867</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>8031003902</v>
       </c>
@@ -25607,7 +25610,7 @@
         <v>46047</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>8059011550</v>
       </c>
@@ -25630,7 +25633,7 @@
         <v>33045</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>8005083500</v>
       </c>
@@ -25653,7 +25656,7 @@
         <v>50840</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>8059011202</v>
       </c>
@@ -25676,7 +25679,7 @@
         <v>48963</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>8005080400</v>
       </c>
@@ -25699,7 +25702,7 @@
         <v>55584</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>8005087100</v>
       </c>
@@ -25722,7 +25725,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>8005087000</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>8005007400</v>
       </c>
@@ -25768,7 +25771,7 @@
         <v>34284</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>8005007302</v>
       </c>
@@ -25791,7 +25794,7 @@
         <v>25757</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>8005006858</v>
       </c>
@@ -26044,7 +26047,7 @@
         <v>35329</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>8001009411</v>
       </c>
@@ -26067,7 +26070,7 @@
         <v>59278</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>8001009406</v>
       </c>
@@ -26090,7 +26093,7 @@
         <v>47978</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>8001009410</v>
       </c>
@@ -26113,7 +26116,7 @@
         <v>62979</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>8059010100</v>
       </c>
@@ -26136,7 +26139,7 @@
         <v>42373</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>8005080500</v>
       </c>
@@ -26159,7 +26162,7 @@
         <v>49460</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>8031003800</v>
       </c>
@@ -26182,7 +26185,7 @@
         <v>58743</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>8031004301</v>
       </c>
@@ -26205,7 +26208,7 @@
         <v>43318</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>8031015500</v>
       </c>
@@ -26228,7 +26231,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>8031005104</v>
       </c>
@@ -26251,7 +26254,7 @@
         <v>35306</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>8031004102</v>
       </c>
@@ -26274,7 +26277,7 @@
         <v>24426</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>8031007037</v>
       </c>
@@ -26297,7 +26300,7 @@
         <v>40959</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>8031004101</v>
       </c>
@@ -26320,7 +26323,7 @@
         <v>23326</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>8031005002</v>
       </c>
@@ -26343,7 +26346,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>8031005001</v>
       </c>
@@ -26366,7 +26369,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>8031004404</v>
       </c>
@@ -26389,7 +26392,7 @@
         <v>28124</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>8059011300</v>
       </c>
@@ -26412,7 +26415,7 @@
         <v>38819</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>8059011401</v>
       </c>
@@ -26435,7 +26438,7 @@
         <v>29915</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>8059011402</v>
       </c>
@@ -26458,7 +26461,7 @@
         <v>32692</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>8059010902</v>
       </c>
@@ -26481,7 +26484,7 @@
         <v>40626</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>8059011100</v>
       </c>
@@ -26504,7 +26507,7 @@
         <v>41527</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>8005005951</v>
       </c>
@@ -26527,7 +26530,7 @@
         <v>37374</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>8005006000</v>
       </c>
@@ -26550,7 +26553,7 @@
         <v>37805</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>8005005700</v>
       </c>
@@ -26573,7 +26576,7 @@
         <v>35222</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>8005006200</v>
       </c>
@@ -26596,7 +26599,7 @@
         <v>41660</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>8005005552</v>
       </c>
@@ -26619,7 +26622,7 @@
         <v>37303</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>8005006300</v>
       </c>
@@ -26642,7 +26645,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>8005005553</v>
       </c>
@@ -26665,7 +26668,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>8005080100</v>
       </c>
@@ -26688,7 +26691,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>8005080000</v>
       </c>
@@ -26711,7 +26714,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>8059009832</v>
       </c>
@@ -26734,7 +26737,7 @@
         <v>46398</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>8001009321</v>
       </c>
@@ -26757,7 +26760,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>8001009319</v>
       </c>
@@ -26780,7 +26783,7 @@
         <v>33161</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>8001008100</v>
       </c>
@@ -26803,7 +26806,7 @@
         <v>35113</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>8031002403</v>
       </c>
@@ -26826,7 +26829,7 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>8059012042</v>
       </c>
@@ -26849,7 +26852,7 @@
         <v>56830</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>8059011723</v>
       </c>
@@ -26872,7 +26875,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>8059011711</v>
       </c>
@@ -26895,7 +26898,7 @@
         <v>48285</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>8031005502</v>
       </c>
@@ -26918,7 +26921,7 @@
         <v>53258</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>8031005503</v>
       </c>
@@ -26941,7 +26944,7 @@
         <v>46643</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>8059012039</v>
       </c>
@@ -26964,7 +26967,7 @@
         <v>47377</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>8059010403</v>
       </c>
@@ -26987,7 +26990,7 @@
         <v>39220</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>8031008388</v>
       </c>
@@ -27010,7 +27013,7 @@
         <v>34652</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>8059009845</v>
       </c>
@@ -27033,7 +27036,7 @@
         <v>67380</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>8005004952</v>
       </c>
@@ -27056,7 +27059,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>8059011708</v>
       </c>
@@ -27079,7 +27082,7 @@
         <v>49971</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>8031001500</v>
       </c>
@@ -27171,7 +27174,7 @@
         <v>51716</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>8031006901</v>
       </c>
@@ -27194,7 +27197,7 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>8059012054</v>
       </c>
@@ -27217,7 +27220,7 @@
         <v>65608</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>8001008534</v>
       </c>
@@ -27240,7 +27243,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>8031012010</v>
       </c>
@@ -27263,7 +27266,7 @@
         <v>54867</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>8059012050</v>
       </c>
@@ -27286,7 +27289,7 @@
         <v>62996</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>8059011726</v>
       </c>
@@ -27309,7 +27312,7 @@
         <v>61431</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>8059011712</v>
       </c>
@@ -27332,7 +27335,7 @@
         <v>55588</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>8059011725</v>
       </c>
@@ -27355,7 +27358,7 @@
         <v>60777</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>8031008389</v>
       </c>
@@ -27378,7 +27381,7 @@
         <v>40738</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>8031008390</v>
       </c>
@@ -27401,7 +27404,7 @@
         <v>33692</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>8059011803</v>
       </c>
@@ -27424,7 +27427,7 @@
         <v>38676</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>8005006712</v>
       </c>
@@ -27447,7 +27450,7 @@
         <v>72731</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>8005006854</v>
       </c>
@@ -27470,7 +27473,7 @@
         <v>58818</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>8005006855</v>
       </c>
@@ -27493,7 +27496,7 @@
         <v>68199</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>8005005612</v>
       </c>
@@ -27516,7 +27519,7 @@
         <v>62242</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>8005006857</v>
       </c>
@@ -27539,7 +27542,7 @@
         <v>72394</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>8031004302</v>
       </c>
@@ -27562,7 +27565,7 @@
         <v>40962</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>8031004603</v>
       </c>
@@ -27585,7 +27588,7 @@
         <v>35641</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>8005081400</v>
       </c>
@@ -27608,7 +27611,7 @@
         <v>47755</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>8005081500</v>
       </c>
@@ -27631,7 +27634,7 @@
         <v>55605</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>8005080600</v>
       </c>
@@ -27654,7 +27657,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>8001008535</v>
       </c>
@@ -27677,7 +27680,7 @@
         <v>40969</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>8001008537</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>50170</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>8005007703</v>
       </c>
@@ -27723,7 +27726,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>8031001102</v>
       </c>
@@ -27746,7 +27749,7 @@
         <v>30602</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>8031000402</v>
       </c>
@@ -27769,7 +27772,7 @@
         <v>32605</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>8059010208</v>
       </c>
@@ -27792,7 +27795,7 @@
         <v>46756</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>8005007704</v>
       </c>
@@ -27815,7 +27818,7 @@
         <v>33927</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>8005082300</v>
       </c>
@@ -27838,7 +27841,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>8059010405</v>
       </c>
@@ -27861,7 +27864,7 @@
         <v>32464</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>8059010402</v>
       </c>
@@ -27884,7 +27887,7 @@
         <v>37190</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>8059012027</v>
       </c>
@@ -27907,7 +27910,7 @@
         <v>51539</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>8031000600</v>
       </c>
@@ -27930,7 +27933,7 @@
         <v>25397</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>8005007600</v>
       </c>
@@ -27953,7 +27956,7 @@
         <v>33118</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8005007301</v>
       </c>
@@ -27976,7 +27979,7 @@
         <v>26881</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>8005007500</v>
       </c>
@@ -27999,7 +28002,7 @@
         <v>37146</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>8059011702</v>
       </c>
@@ -28022,7 +28025,7 @@
         <v>47355</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>8059011709</v>
       </c>
@@ -28045,7 +28048,7 @@
         <v>51896</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>8059011710</v>
       </c>
@@ -28068,7 +28071,7 @@
         <v>56422</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>8059009828</v>
       </c>
@@ -28091,7 +28094,7 @@
         <v>54363</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>8013060800</v>
       </c>
@@ -28114,7 +28117,7 @@
         <v>37072</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>8059009833</v>
       </c>
@@ -28137,7 +28140,7 @@
         <v>49619</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>8059011904</v>
       </c>
@@ -28160,7 +28163,7 @@
         <v>47824</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>8059015900</v>
       </c>
@@ -28183,7 +28186,7 @@
         <v>50227</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>8059011720</v>
       </c>
@@ -28206,7 +28209,7 @@
         <v>58787</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>8059009849</v>
       </c>
@@ -28229,7 +28232,7 @@
         <v>49396</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>8059010213</v>
       </c>
@@ -28252,7 +28255,7 @@
         <v>45350</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>8059010212</v>
       </c>
@@ -28275,7 +28278,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>8005081900</v>
       </c>
@@ -28298,7 +28301,7 @@
         <v>36400</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>8059011804</v>
       </c>
@@ -28413,7 +28416,7 @@
         <v>37993</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>8005082900</v>
       </c>
@@ -28436,7 +28439,7 @@
         <v>47716</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>8013060700</v>
       </c>
@@ -28459,7 +28462,7 @@
         <v>59276</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>8013061300</v>
       </c>
@@ -28482,7 +28485,7 @@
         <v>61553</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>8005007702</v>
       </c>
@@ -28505,7 +28508,7 @@
         <v>39263</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>8031004602</v>
       </c>
@@ -28528,7 +28531,7 @@
         <v>33715</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>8031012014</v>
       </c>
@@ -28551,7 +28554,7 @@
         <v>47283</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>8005083800</v>
       </c>
@@ -28574,7 +28577,7 @@
         <v>46157</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>8005083900</v>
       </c>
@@ -28597,7 +28600,7 @@
         <v>49776</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>8059009835</v>
       </c>
@@ -28620,7 +28623,7 @@
         <v>61795</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>8005081600</v>
       </c>
@@ -28643,7 +28646,7 @@
         <v>46736</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>8005082500</v>
       </c>
@@ -28666,7 +28669,7 @@
         <v>51713</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>8059009838</v>
       </c>
@@ -28689,7 +28692,7 @@
         <v>65671</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>8005084000</v>
       </c>
@@ -28712,7 +28715,7 @@
         <v>53646</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>8005084700</v>
       </c>
@@ -28735,7 +28738,7 @@
         <v>53074</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>8031008312</v>
       </c>
@@ -28758,7 +28761,7 @@
         <v>29880</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>8031008304</v>
       </c>
@@ -28781,7 +28784,7 @@
         <v>29608</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>8031008386</v>
       </c>
@@ -28804,7 +28807,7 @@
         <v>29417</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>8001008200</v>
       </c>
@@ -28827,7 +28830,7 @@
         <v>38102</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>8059012034</v>
       </c>
@@ -28850,7 +28853,7 @@
         <v>75736</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>8059011000</v>
       </c>
@@ -28873,7 +28876,7 @@
         <v>40044</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>8001008309</v>
       </c>
@@ -28896,7 +28899,7 @@
         <v>35344</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>8059011601</v>
       </c>
@@ -28919,7 +28922,7 @@
         <v>37843</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>8059011602</v>
       </c>
@@ -28942,7 +28945,7 @@
         <v>40841</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>8001007801</v>
       </c>
@@ -28965,7 +28968,7 @@
         <v>22803</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>8001007802</v>
       </c>
@@ -28988,7 +28991,7 @@
         <v>25817</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>8059060400</v>
       </c>
@@ -29011,7 +29014,7 @@
         <v>52363</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>8059060300</v>
       </c>
@@ -29034,7 +29037,7 @@
         <v>54368</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>8001009325</v>
       </c>
@@ -29057,7 +29060,7 @@
         <v>62595</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>8001009408</v>
       </c>
@@ -29080,7 +29083,7 @@
         <v>51193</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>8001009326</v>
       </c>
@@ -29103,7 +29106,7 @@
         <v>57218</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>8001009409</v>
       </c>
@@ -29126,7 +29129,7 @@
         <v>54452</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>8001060200</v>
       </c>
@@ -29149,7 +29152,7 @@
         <v>46634</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>8001060100</v>
       </c>
@@ -29172,7 +29175,7 @@
         <v>47878</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>8031001600</v>
       </c>
@@ -29195,7 +29198,7 @@
         <v>23990</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>8031003500</v>
       </c>
@@ -29218,7 +29221,7 @@
         <v>31538</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>8031003603</v>
       </c>
@@ -29241,7 +29244,7 @@
         <v>26379</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>8031003601</v>
       </c>
@@ -29264,7 +29267,7 @@
         <v>27286</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>8031002402</v>
       </c>
@@ -29287,7 +29290,7 @@
         <v>22517</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>8031003602</v>
       </c>
@@ -29310,7 +29313,7 @@
         <v>27152</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>8001008353</v>
       </c>
@@ -29333,7 +29336,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>8031004107</v>
       </c>
@@ -29356,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>8031004106</v>
       </c>
@@ -29379,7 +29382,7 @@
         <v>56471</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>8031008387</v>
       </c>
@@ -29402,7 +29405,7 @@
         <v>31740</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>8031008391</v>
       </c>
@@ -29425,7 +29428,7 @@
         <v>34710</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>8001008506</v>
       </c>
@@ -29448,7 +29451,7 @@
         <v>39358</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>8001009323</v>
       </c>
@@ -29471,7 +29474,7 @@
         <v>41027</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>8001008533</v>
       </c>
@@ -29494,7 +29497,7 @@
         <v>42274</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>8001009304</v>
       </c>
@@ -29517,7 +29520,7 @@
         <v>43715</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>8001008505</v>
       </c>
@@ -29540,7 +29543,7 @@
         <v>40351</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>8059009841</v>
       </c>
@@ -29563,7 +29566,7 @@
         <v>53550</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>8059010303</v>
       </c>
@@ -29586,7 +29589,7 @@
         <v>57125</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>8059009840</v>
       </c>
@@ -29609,7 +29612,7 @@
         <v>58549</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>8031015400</v>
       </c>
@@ -29632,7 +29635,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>8031000303</v>
       </c>
@@ -29655,7 +29658,7 @@
         <v>36677</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>8031001101</v>
       </c>
@@ -29678,7 +29681,7 @@
         <v>31779</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>8031000202</v>
       </c>
@@ -29701,7 +29704,7 @@
         <v>31803</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>8059010205</v>
       </c>
@@ -29724,7 +29727,7 @@
         <v>56214</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>8031001403</v>
       </c>
@@ -29747,7 +29750,7 @@
         <v>27891</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>8005084600</v>
       </c>
@@ -29770,7 +29773,7 @@
         <v>50399</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>8031003001</v>
       </c>
@@ -29793,7 +29796,7 @@
         <v>46603</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>8005085700</v>
       </c>
@@ -29816,7 +29819,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>8005084800</v>
       </c>
@@ -29839,7 +29842,7 @@
         <v>49685</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>8005085800</v>
       </c>
@@ -29862,7 +29865,7 @@
         <v>48537</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>8059009837</v>
       </c>
@@ -29885,7 +29888,7 @@
         <v>67347</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>8059009839</v>
       </c>
@@ -29908,7 +29911,7 @@
         <v>64632</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>8001008538</v>
       </c>
@@ -29931,7 +29934,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>8031003002</v>
       </c>
@@ -29954,7 +29957,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>8031001401</v>
       </c>
@@ -29977,7 +29980,7 @@
         <v>35323</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>8031001402</v>
       </c>
@@ -30000,7 +30003,7 @@
         <v>34810</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>8001008308</v>
       </c>
@@ -30023,7 +30026,7 @@
         <v>32576</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>8005081200</v>
       </c>
@@ -30046,7 +30049,7 @@
         <v>41455</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>8005086000</v>
       </c>
@@ -30069,7 +30072,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>8059010211</v>
       </c>
@@ -30092,7 +30095,7 @@
         <v>48065</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>8059010210</v>
       </c>
@@ -30115,7 +30118,7 @@
         <v>54272</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>8005083400</v>
       </c>
@@ -30138,7 +30141,7 @@
         <v>50674</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>8059011721</v>
       </c>
@@ -30161,7 +30164,7 @@
         <v>62205</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>8059011805</v>
       </c>
@@ -30184,7 +30187,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>8059011806</v>
       </c>
@@ -30207,7 +30210,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>8059010209</v>
       </c>
@@ -30230,7 +30233,7 @@
         <v>49621</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>8001009603</v>
       </c>
@@ -30253,7 +30256,7 @@
         <v>39802</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>8001009604</v>
       </c>
@@ -30276,7 +30279,7 @@
         <v>37651</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>8001009501</v>
       </c>
@@ -30299,7 +30302,7 @@
         <v>37532</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>8031005300</v>
       </c>
@@ -30322,7 +30325,7 @@
         <v>53793</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>8005005551</v>
       </c>
@@ -30345,7 +30348,7 @@
         <v>33207</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>8031003004</v>
       </c>
@@ -30368,7 +30371,7 @@
         <v>46475</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>8031015600</v>
       </c>
@@ -30391,7 +30394,7 @@
         <v>31896</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>8031002902</v>
       </c>
@@ -30414,7 +30417,7 @@
         <v>52147</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>8031004003</v>
       </c>
@@ -30437,7 +30440,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>8031006804</v>
       </c>
@@ -30460,7 +30463,7 @@
         <v>62427</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>8031006701</v>
       </c>
@@ -30483,7 +30486,7 @@
         <v>53404</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>8031006809</v>
       </c>
@@ -30506,7 +30509,7 @@
         <v>59909</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>8031006813</v>
       </c>
@@ -30529,7 +30532,7 @@
         <v>39414</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>8031006812</v>
       </c>
@@ -30552,7 +30555,7 @@
         <v>60781</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>8031006810</v>
       </c>
@@ -30575,7 +30578,7 @@
         <v>49831</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>8031006811</v>
       </c>
@@ -30598,7 +30601,7 @@
         <v>54007</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>8031006814</v>
       </c>
@@ -30621,7 +30624,7 @@
         <v>49996</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>8031004801</v>
       </c>
@@ -30644,7 +30647,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>8031015700</v>
       </c>
@@ -30667,7 +30670,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>8031004700</v>
       </c>
@@ -30690,7 +30693,7 @@
         <v>39534</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>8031012001</v>
       </c>
@@ -30713,7 +30716,7 @@
         <v>61191</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>8005083100</v>
       </c>
@@ -30736,7 +30739,7 @@
         <v>45514</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>8031000800</v>
       </c>
@@ -30759,7 +30762,7 @@
         <v>25833</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>8005007201</v>
       </c>
@@ -30782,7 +30785,7 @@
         <v>31695</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>8031000401</v>
       </c>
@@ -30851,7 +30854,7 @@
         <v>52932</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>8005083200</v>
       </c>
@@ -30874,7 +30877,7 @@
         <v>46257</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>8005083000</v>
       </c>
@@ -30897,7 +30900,7 @@
         <v>61747</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>8001009203</v>
       </c>
@@ -30920,7 +30923,7 @@
         <v>35621</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>8001008529</v>
       </c>
@@ -30943,7 +30946,7 @@
         <v>51684</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>8001009202</v>
       </c>
@@ -30966,7 +30969,7 @@
         <v>36105</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>8001009318</v>
       </c>
@@ -30989,7 +30992,7 @@
         <v>34459</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>8001008547</v>
       </c>
@@ -31012,7 +31015,7 @@
         <v>51976</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>8001009322</v>
       </c>
@@ -31035,7 +31038,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>8001009204</v>
       </c>
@@ -31058,7 +31061,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>8001009316</v>
       </c>
@@ -31081,7 +31084,7 @@
         <v>36099</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>8001008508</v>
       </c>
@@ -31104,7 +31107,7 @@
         <v>47717</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>8001008546</v>
       </c>
@@ -31127,7 +31130,7 @@
         <v>48245</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>8001008544</v>
       </c>
@@ -31150,7 +31153,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>8001009104</v>
       </c>
@@ -31173,7 +31176,7 @@
         <v>40678</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>8001009101</v>
       </c>
@@ -31196,7 +31199,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>8001009103</v>
       </c>
@@ -31219,7 +31222,7 @@
         <v>34113</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>8059011951</v>
       </c>
@@ -31242,7 +31245,7 @@
         <v>54894</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>8005082600</v>
       </c>
@@ -31265,7 +31268,7 @@
         <v>38444</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>8059011733</v>
       </c>
@@ -31288,7 +31291,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>8059011732</v>
       </c>
@@ -31311,7 +31314,7 @@
         <v>41018</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>8031004005</v>
       </c>
@@ -31334,7 +31337,7 @@
         <v>52503</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>8031003003</v>
       </c>
@@ -31357,7 +31360,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>8005080700</v>
       </c>
@@ -31380,7 +31383,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>8031001000</v>
       </c>
@@ -31403,7 +31406,7 @@
         <v>30062</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>8031000904</v>
       </c>
@@ -31426,7 +31429,7 @@
         <v>29412</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>8031000905</v>
       </c>
@@ -31449,7 +31452,7 @@
         <v>31584</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>8005080300</v>
       </c>
@@ -31472,7 +31475,7 @@
         <v>55141</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>8005080200</v>
       </c>
@@ -31495,7 +31498,7 @@
         <v>52187</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>8031002901</v>
       </c>
@@ -31518,7 +31521,7 @@
         <v>35005</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>8031003401</v>
       </c>
@@ -31541,7 +31544,7 @@
         <v>54602</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>8059009831</v>
       </c>
@@ -31564,7 +31567,7 @@
         <v>46749</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>8059009834</v>
       </c>
@@ -31587,7 +31590,7 @@
         <v>49435</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>8059009830</v>
       </c>
@@ -31610,7 +31613,7 @@
         <v>56149</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>8059060500</v>
       </c>
@@ -31633,7 +31636,7 @@
         <v>56780</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>8059009829</v>
       </c>
@@ -31656,7 +31659,7 @@
         <v>58165</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>8059009824</v>
       </c>
@@ -31679,7 +31682,7 @@
         <v>52804</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>8059009823</v>
       </c>
@@ -31702,7 +31705,7 @@
         <v>53144</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>8031001302</v>
       </c>
@@ -31725,7 +31728,7 @@
         <v>34462</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>8031000701</v>
       </c>
@@ -31748,7 +31751,7 @@
         <v>32876</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>8031000702</v>
       </c>
@@ -31771,7 +31774,7 @@
         <v>29778</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>8031004506</v>
       </c>
@@ -31794,7 +31797,7 @@
         <v>28177</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>8031001301</v>
       </c>
@@ -31817,7 +31820,7 @@
         <v>35168</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>8031004505</v>
       </c>
@@ -31840,7 +31843,7 @@
         <v>29626</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>8031004503</v>
       </c>
@@ -31863,7 +31866,7 @@
         <v>27176</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="56" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>8059009827</v>
       </c>
@@ -31886,7 +31889,7 @@
         <v>53570</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>8059012043</v>
       </c>
@@ -31909,7 +31912,7 @@
         <v>58012</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>8001009407</v>
       </c>
@@ -31932,7 +31935,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>8001009320</v>
       </c>
@@ -31955,7 +31958,7 @@
         <v>31232</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>8001009607</v>
       </c>
@@ -31978,7 +31981,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>8001009401</v>
       </c>
@@ -32001,7 +32004,7 @@
         <v>45706</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>8001009309</v>
       </c>
@@ -32024,7 +32027,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>8059010503</v>
       </c>
@@ -32047,7 +32050,7 @@
         <v>54087</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>8059010702</v>
       </c>
@@ -32070,7 +32073,7 @@
         <v>36772</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>8005081300</v>
       </c>
@@ -32093,7 +32096,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>8059012038</v>
       </c>
@@ -32116,7 +32119,7 @@
         <v>49968</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>8059009851</v>
       </c>
@@ -32149,14 +32152,14 @@
   <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -32164,15 +32167,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -32182,7 +32185,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6"/>
       <c r="E6" s="5"/>
@@ -32194,7 +32197,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>0.59722132103765679</v>
@@ -32208,13 +32211,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8">
         <v>0.35667330630196398</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -32224,7 +32227,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>0.35493927208714443</v>
@@ -32232,7 +32235,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>8461.3268634427804</v>
@@ -32240,7 +32243,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="7">
         <v>373</v>
@@ -32248,30 +32251,30 @@
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -32291,7 +32294,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>371</v>
@@ -32305,7 +32308,7 @@
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="7">
         <v>372</v>
@@ -32321,33 +32324,33 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20">
         <v>-42826.304495628523</v>
@@ -32405,19 +32408,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -32453,7 +32456,7 @@
         <v>5076.1602230609788</v>
       </c>
       <c r="J30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -36537,7 +36540,7 @@
   <dimension ref="A1:J402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N313" sqref="N313"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36547,7 +36550,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -36555,15 +36558,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -36573,7 +36576,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6"/>
       <c r="E6" s="5"/>
@@ -36585,7 +36588,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>0.6692625923339478</v>
@@ -36599,13 +36602,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8">
         <v>0.447912417497556</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -36615,7 +36618,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B9">
         <v>0.44342390056664177</v>
@@ -36623,7 +36626,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>7859.6000649604721</v>
@@ -36631,7 +36634,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B11" s="7">
         <v>373</v>
@@ -36639,30 +36642,30 @@
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -36682,7 +36685,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <v>369</v>
@@ -36696,7 +36699,7 @@
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17" s="7">
         <v>372</v>
@@ -36712,33 +36715,33 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20">
         <v>-46877.600972813503</v>
@@ -36854,19 +36857,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">

--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D9DCB8-90E7-D349-B52A-434E5346C578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3898C-9C78-364E-8756-E18C5F1E5872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" activeTab="2" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Job Density</t>
   </si>
   <si>
     <t>Employement Rate</t>
@@ -716,22 +713,25 @@
     <t>R Squared: 0.4479 so only 44.79% of the data fits the regression model</t>
   </si>
   <si>
-    <t xml:space="preserve"> Household Income = -46877.601 + 0.021(Job Density) + 102238.347(Employement Rate) + 9.877(Rent)</t>
-  </si>
-  <si>
     <t>Household Income = -42826.304 + 111888.601(employment rate)</t>
   </si>
   <si>
     <t>Impact of employment rate on household income</t>
   </si>
   <si>
-    <t>P-Value: Employment Rate and Rent are less than .05, so these are significant variables. Job Density is not less than .05, so this is not a significant variable</t>
+    <t>Employment Rate</t>
   </si>
   <si>
-    <t>Impact of employment rate, job density, and rent on household income</t>
+    <t>Number of Jobs Per Square Mile</t>
   </si>
   <si>
-    <t>Employment Rate</t>
+    <t>P-Value: Employment Rate and Rent are less than .05, so these are significant variables. Number of Jobs is not less than .05, so this is not a significant variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Household Income = -46877.601 + 0.021(Number of Jobs Per Square Mile) + 102238.347(Employement Rate) + 9.877(Rent)</t>
+  </si>
+  <si>
+    <t>Impact of employment rate, number of jobs per square mile, and rent on household income</t>
   </si>
 </sst>
 </file>
@@ -4212,7 +4212,7 @@
     <sheetNames>
       <sheetName val="Original CO Household Income"/>
       <sheetName val="Original CO Employement Rates"/>
-      <sheetName val="Original CO Job Density"/>
+      <sheetName val="Original CO Jobs"/>
       <sheetName val="Original CO Rent "/>
       <sheetName val="Merged Data"/>
     </sheetNames>
@@ -23530,20 +23530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052639C8-7E86-3240-B6FB-8FE487A0F177}">
   <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23551,16 +23551,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -23568,7 +23568,7 @@
         <v>8031002801</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>3784</v>
@@ -23591,7 +23591,7 @@
         <v>8059010307</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>1054</v>
@@ -23614,7 +23614,7 @@
         <v>8059010306</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>809.8</v>
@@ -23637,7 +23637,7 @@
         <v>8059010305</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1941</v>
@@ -23660,7 +23660,7 @@
         <v>8059010304</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>783.1</v>
@@ -23683,7 +23683,7 @@
         <v>8059009852</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>904.2</v>
@@ -23706,7 +23706,7 @@
         <v>8059009807</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>7147</v>
@@ -23729,7 +23729,7 @@
         <v>8059010901</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>1970</v>
@@ -23752,7 +23752,7 @@
         <v>8059015800</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>3389</v>
@@ -23775,7 +23775,7 @@
         <v>8059010504</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>938.4</v>
@@ -23798,7 +23798,7 @@
         <v>8059010308</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3">
         <v>986.8</v>
@@ -23821,7 +23821,7 @@
         <v>8059010406</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>3555</v>
@@ -23844,7 +23844,7 @@
         <v>8001009608</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>1778</v>
@@ -23867,7 +23867,7 @@
         <v>8005082700</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>719.1</v>
@@ -23890,7 +23890,7 @@
         <v>8005082800</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>550</v>
@@ -23913,7 +23913,7 @@
         <v>8005080900</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>850.8</v>
@@ -23936,7 +23936,7 @@
         <v>8005080800</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
         <v>504.2</v>
@@ -23959,7 +23959,7 @@
         <v>8005083300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
         <v>744.9</v>
@@ -23982,7 +23982,7 @@
         <v>8005084500</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>162.5</v>
@@ -24005,7 +24005,7 @@
         <v>8005082200</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
         <v>570.9</v>
@@ -24028,7 +24028,7 @@
         <v>8005082400</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
         <v>527</v>
@@ -24051,7 +24051,7 @@
         <v>8005084300</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3">
         <v>469.3</v>
@@ -24074,7 +24074,7 @@
         <v>8001007900</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
         <v>413.7</v>
@@ -24097,7 +24097,7 @@
         <v>8005083600</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3">
         <v>171.7</v>
@@ -24120,7 +24120,7 @@
         <v>8001008000</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>115.4</v>
@@ -24143,7 +24143,7 @@
         <v>8005007202</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>85.54</v>
@@ -24166,7 +24166,7 @@
         <v>8031001701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>55027</v>
@@ -24189,7 +24189,7 @@
         <v>8031000902</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>355</v>
@@ -24212,7 +24212,7 @@
         <v>8031000903</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3">
         <v>498</v>
@@ -24235,7 +24235,7 @@
         <v>8059010603</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3">
         <v>2445</v>
@@ -24258,7 +24258,7 @@
         <v>8059010604</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3">
         <v>1362</v>
@@ -24281,7 +24281,7 @@
         <v>8059011729</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3">
         <v>1805</v>
@@ -24304,7 +24304,7 @@
         <v>8059011731</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="3">
         <v>618.1</v>
@@ -24327,7 +24327,7 @@
         <v>8059011730</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="3">
         <v>112</v>
@@ -24350,7 +24350,7 @@
         <v>8031011903</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3">
         <v>634.6</v>
@@ -24373,7 +24373,7 @@
         <v>8031011902</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3">
         <v>478.4</v>
@@ -24396,7 +24396,7 @@
         <v>8059010502</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
         <v>1662</v>
@@ -24419,7 +24419,7 @@
         <v>8031003901</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3">
         <v>2434</v>
@@ -24442,7 +24442,7 @@
         <v>8059011701</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3">
         <v>2579</v>
@@ -24465,7 +24465,7 @@
         <v>8005007103</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3">
         <v>5.1059999999999999</v>
@@ -24488,7 +24488,7 @@
         <v>8001008401</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3">
         <v>3.6869999999999998</v>
@@ -24511,7 +24511,7 @@
         <v>8031000301</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="3">
         <v>1457</v>
@@ -24534,7 +24534,7 @@
         <v>8031000102</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="3">
         <v>663.6</v>
@@ -24557,7 +24557,7 @@
         <v>8001008549</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3">
         <v>152.9</v>
@@ -24580,7 +24580,7 @@
         <v>8001008523</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="3">
         <v>69.03</v>
@@ -24603,7 +24603,7 @@
         <v>8014031100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="3">
         <v>3432</v>
@@ -24626,7 +24626,7 @@
         <v>8014030300</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="3">
         <v>2290</v>
@@ -24649,7 +24649,7 @@
         <v>8014031200</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="3">
         <v>2076</v>
@@ -24672,7 +24672,7 @@
         <v>8014030200</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3">
         <v>2064</v>
@@ -24695,7 +24695,7 @@
         <v>8014030000</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3">
         <v>882.8</v>
@@ -24718,7 +24718,7 @@
         <v>8014030100</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="3">
         <v>793.3</v>
@@ -24741,7 +24741,7 @@
         <v>8014030800</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="3">
         <v>596.79999999999995</v>
@@ -24764,7 +24764,7 @@
         <v>8059009815</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="3">
         <v>106.6</v>
@@ -24787,7 +24787,7 @@
         <v>8059009836</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="3">
         <v>81.38</v>
@@ -24810,7 +24810,7 @@
         <v>8031002701</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="3">
         <v>36077</v>
@@ -24833,7 +24833,7 @@
         <v>8059011727</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="3">
         <v>847</v>
@@ -24856,7 +24856,7 @@
         <v>8059011728</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="3">
         <v>389.5</v>
@@ -24879,7 +24879,7 @@
         <v>8005084200</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="3">
         <v>423.1</v>
@@ -24902,7 +24902,7 @@
         <v>8005084100</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="3">
         <v>318.60000000000002</v>
@@ -24925,7 +24925,7 @@
         <v>8005086200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" s="3">
         <v>595.29999999999995</v>
@@ -24948,7 +24948,7 @@
         <v>8005085400</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="3">
         <v>588.20000000000005</v>
@@ -24971,7 +24971,7 @@
         <v>8005081700</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="3">
         <v>564.4</v>
@@ -24994,7 +24994,7 @@
         <v>8005085500</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C64" s="3">
         <v>177.2</v>
@@ -25017,7 +25017,7 @@
         <v>8031001702</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="3">
         <v>148450</v>
@@ -25040,7 +25040,7 @@
         <v>8031002601</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="3">
         <v>85383</v>
@@ -25063,7 +25063,7 @@
         <v>8031002702</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="3">
         <v>61087</v>
@@ -25086,7 +25086,7 @@
         <v>8031003101</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="3">
         <v>26239</v>
@@ -25109,7 +25109,7 @@
         <v>8031001800</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="3">
         <v>22670</v>
@@ -25132,7 +25132,7 @@
         <v>8031003102</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="3">
         <v>17609</v>
@@ -25155,7 +25155,7 @@
         <v>8031002602</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="3">
         <v>11303</v>
@@ -25178,7 +25178,7 @@
         <v>8031002802</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="3">
         <v>8895</v>
@@ -25201,7 +25201,7 @@
         <v>8031001901</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="3">
         <v>7646</v>
@@ -25224,7 +25224,7 @@
         <v>8031003703</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3">
         <v>7230</v>
@@ -25247,7 +25247,7 @@
         <v>8031002703</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="3">
         <v>3678</v>
@@ -25270,7 +25270,7 @@
         <v>8005082100</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="3">
         <v>496</v>
@@ -25293,7 +25293,7 @@
         <v>8005082000</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="3">
         <v>4281</v>
@@ -25316,7 +25316,7 @@
         <v>8031000201</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" s="3">
         <v>1657</v>
@@ -25339,7 +25339,7 @@
         <v>8005081800</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="3">
         <v>1251</v>
@@ -25362,7 +25362,7 @@
         <v>8031003202</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" s="3">
         <v>3867</v>
@@ -25385,7 +25385,7 @@
         <v>8005081000</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="3">
         <v>4483</v>
@@ -25408,7 +25408,7 @@
         <v>8005081100</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="3">
         <v>8511</v>
@@ -25431,7 +25431,7 @@
         <v>8059010206</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" s="3">
         <v>1031</v>
@@ -25454,7 +25454,7 @@
         <v>8001008709</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" s="3">
         <v>3794</v>
@@ -25477,7 +25477,7 @@
         <v>8001008901</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" s="3">
         <v>1261</v>
@@ -25500,7 +25500,7 @@
         <v>8001008802</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" s="3">
         <v>929.2</v>
@@ -25523,7 +25523,7 @@
         <v>8001008705</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="3">
         <v>738.1</v>
@@ -25546,7 +25546,7 @@
         <v>8001008801</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" s="3">
         <v>700.6</v>
@@ -25569,7 +25569,7 @@
         <v>8001008706</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C89" s="3">
         <v>652.9</v>
@@ -25592,7 +25592,7 @@
         <v>8031003902</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C90" s="3">
         <v>5217</v>
@@ -25615,7 +25615,7 @@
         <v>8059011550</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="3">
         <v>1726</v>
@@ -25638,7 +25638,7 @@
         <v>8005083500</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="3">
         <v>735.6</v>
@@ -25661,7 +25661,7 @@
         <v>8059011202</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" s="3">
         <v>1342</v>
@@ -25684,7 +25684,7 @@
         <v>8005080400</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" s="3">
         <v>4981</v>
@@ -25707,7 +25707,7 @@
         <v>8005087100</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C95" s="3">
         <v>5032</v>
@@ -25730,7 +25730,7 @@
         <v>8005087000</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" s="3">
         <v>3707</v>
@@ -25753,7 +25753,7 @@
         <v>8005007400</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="3">
         <v>1438</v>
@@ -25776,7 +25776,7 @@
         <v>8005007302</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="3">
         <v>1347</v>
@@ -25799,7 +25799,7 @@
         <v>8005006858</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C99" s="3">
         <v>17235</v>
@@ -25822,7 +25822,7 @@
         <v>8005086900</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="3">
         <v>3106</v>
@@ -25845,7 +25845,7 @@
         <v>8005087300</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C101" s="3">
         <v>2534</v>
@@ -25868,7 +25868,7 @@
         <v>8001009553</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C102" s="3">
         <v>2326</v>
@@ -25891,7 +25891,7 @@
         <v>8001015000</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" s="3">
         <v>2070</v>
@@ -25914,7 +25914,7 @@
         <v>8001009001</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3">
         <v>1883</v>
@@ -25937,7 +25937,7 @@
         <v>8005004951</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C105" s="3">
         <v>1450</v>
@@ -25960,7 +25960,7 @@
         <v>8001009308</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="3">
         <v>1427</v>
@@ -25983,7 +25983,7 @@
         <v>8001009002</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107" s="3">
         <v>1265</v>
@@ -26006,7 +26006,7 @@
         <v>8001009752</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3">
         <v>1120</v>
@@ -26029,7 +26029,7 @@
         <v>8001009751</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3">
         <v>879.4</v>
@@ -26052,7 +26052,7 @@
         <v>8001009411</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" s="3">
         <v>1170</v>
@@ -26075,7 +26075,7 @@
         <v>8001009406</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C111" s="3">
         <v>661.7</v>
@@ -26098,7 +26098,7 @@
         <v>8001009410</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" s="3">
         <v>204</v>
@@ -26121,7 +26121,7 @@
         <v>8059010100</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" s="3">
         <v>5603</v>
@@ -26144,7 +26144,7 @@
         <v>8005080500</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="3">
         <v>3768</v>
@@ -26167,7 +26167,7 @@
         <v>8031003800</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C115" s="3">
         <v>15357</v>
@@ -26190,7 +26190,7 @@
         <v>8031004301</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C116" s="3">
         <v>12441</v>
@@ -26213,7 +26213,7 @@
         <v>8031015500</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" s="3">
         <v>11996</v>
@@ -26236,7 +26236,7 @@
         <v>8031005104</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" s="3">
         <v>11297</v>
@@ -26259,7 +26259,7 @@
         <v>8031004102</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119" s="3">
         <v>4179</v>
@@ -26282,7 +26282,7 @@
         <v>8031007037</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" s="3">
         <v>2935</v>
@@ -26305,7 +26305,7 @@
         <v>8031004101</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C121" s="3">
         <v>2682</v>
@@ -26328,7 +26328,7 @@
         <v>8031005002</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C122" s="3">
         <v>1896</v>
@@ -26351,7 +26351,7 @@
         <v>8031005001</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C123" s="3">
         <v>969.7</v>
@@ -26374,7 +26374,7 @@
         <v>8031004404</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C124" s="3">
         <v>307.5</v>
@@ -26397,7 +26397,7 @@
         <v>8059011300</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C125" s="3">
         <v>955.6</v>
@@ -26420,7 +26420,7 @@
         <v>8059011401</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C126" s="3">
         <v>5699</v>
@@ -26443,7 +26443,7 @@
         <v>8059011402</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C127" s="3">
         <v>3363</v>
@@ -26466,7 +26466,7 @@
         <v>8059010902</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" s="3">
         <v>4900</v>
@@ -26489,7 +26489,7 @@
         <v>8059011100</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C129" s="3">
         <v>2384</v>
@@ -26512,7 +26512,7 @@
         <v>8005005951</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C130" s="3">
         <v>9429</v>
@@ -26535,7 +26535,7 @@
         <v>8005006000</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C131" s="3">
         <v>4866</v>
@@ -26558,7 +26558,7 @@
         <v>8005005700</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C132" s="3">
         <v>4693</v>
@@ -26581,7 +26581,7 @@
         <v>8005006200</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C133" s="3">
         <v>2730</v>
@@ -26604,7 +26604,7 @@
         <v>8005005552</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" s="3">
         <v>2287</v>
@@ -26627,7 +26627,7 @@
         <v>8005006300</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C135" s="3">
         <v>1301</v>
@@ -26650,7 +26650,7 @@
         <v>8005005553</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C136" s="3">
         <v>1165</v>
@@ -26673,7 +26673,7 @@
         <v>8005080100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C137" s="3">
         <v>2050</v>
@@ -26696,7 +26696,7 @@
         <v>8005080000</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C138" s="3">
         <v>875.5</v>
@@ -26719,7 +26719,7 @@
         <v>8059009832</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C139" s="3">
         <v>1992</v>
@@ -26742,7 +26742,7 @@
         <v>8001009321</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C140" s="3">
         <v>1285</v>
@@ -26765,7 +26765,7 @@
         <v>8001009319</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141" s="3">
         <v>577.9</v>
@@ -26788,7 +26788,7 @@
         <v>8001008100</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" s="3">
         <v>14487</v>
@@ -26811,7 +26811,7 @@
         <v>8031002403</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" s="3">
         <v>2953</v>
@@ -26834,7 +26834,7 @@
         <v>8059012042</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C144" s="3">
         <v>593.1</v>
@@ -26857,7 +26857,7 @@
         <v>8059011723</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" s="3">
         <v>3409</v>
@@ -26880,7 +26880,7 @@
         <v>8059011711</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C146" s="3">
         <v>689.7</v>
@@ -26903,7 +26903,7 @@
         <v>8031005502</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C147" s="3">
         <v>1036</v>
@@ -26926,7 +26926,7 @@
         <v>8031005503</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C148" s="3">
         <v>448.7</v>
@@ -26949,7 +26949,7 @@
         <v>8059012039</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C149" s="3">
         <v>165.9</v>
@@ -26972,7 +26972,7 @@
         <v>8059010403</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C150" s="3">
         <v>1647</v>
@@ -26995,7 +26995,7 @@
         <v>8031008388</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C151" s="3">
         <v>356.7</v>
@@ -27018,7 +27018,7 @@
         <v>8059009845</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C152" s="3">
         <v>72.510000000000005</v>
@@ -27041,7 +27041,7 @@
         <v>8005004952</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153" s="3">
         <v>21411</v>
@@ -27064,7 +27064,7 @@
         <v>8059011708</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C154" s="3">
         <v>274.39999999999998</v>
@@ -27087,7 +27087,7 @@
         <v>8031001500</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C155" s="3">
         <v>3049</v>
@@ -27110,7 +27110,7 @@
         <v>8059009900</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C156" s="3">
         <v>984.3</v>
@@ -27133,7 +27133,7 @@
         <v>8059009842</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157" s="3">
         <v>765</v>
@@ -27156,7 +27156,7 @@
         <v>8059009843</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C158" s="3">
         <v>75.47</v>
@@ -27179,7 +27179,7 @@
         <v>8031006901</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C159" s="3">
         <v>3473</v>
@@ -27202,7 +27202,7 @@
         <v>8059012054</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C160" s="3">
         <v>2659</v>
@@ -27225,7 +27225,7 @@
         <v>8001008534</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C161" s="3">
         <v>236.7</v>
@@ -27248,7 +27248,7 @@
         <v>8031012010</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C162" s="3">
         <v>1721</v>
@@ -27271,7 +27271,7 @@
         <v>8059012050</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C163" s="3">
         <v>1629</v>
@@ -27294,7 +27294,7 @@
         <v>8059011726</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C164" s="3">
         <v>356.1</v>
@@ -27317,7 +27317,7 @@
         <v>8059011712</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C165" s="3">
         <v>265.7</v>
@@ -27340,7 +27340,7 @@
         <v>8059011725</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C166" s="3">
         <v>164.9</v>
@@ -27363,7 +27363,7 @@
         <v>8031008389</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C167" s="3">
         <v>296.5</v>
@@ -27386,7 +27386,7 @@
         <v>8031008390</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168" s="3">
         <v>174.5</v>
@@ -27409,7 +27409,7 @@
         <v>8059011803</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C169" s="3">
         <v>652.29999999999995</v>
@@ -27432,7 +27432,7 @@
         <v>8005006712</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C170" s="3">
         <v>12106</v>
@@ -27455,7 +27455,7 @@
         <v>8005006854</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C171" s="3">
         <v>2475</v>
@@ -27478,7 +27478,7 @@
         <v>8005006855</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C172" s="3">
         <v>1996</v>
@@ -27501,7 +27501,7 @@
         <v>8005005612</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C173" s="3">
         <v>1049</v>
@@ -27524,7 +27524,7 @@
         <v>8005006857</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C174" s="3">
         <v>265.5</v>
@@ -27547,7 +27547,7 @@
         <v>8031004302</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C175" s="3">
         <v>427.2</v>
@@ -27570,7 +27570,7 @@
         <v>8031004603</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C176" s="3">
         <v>478.5</v>
@@ -27593,7 +27593,7 @@
         <v>8005081400</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C177" s="3">
         <v>3479</v>
@@ -27616,7 +27616,7 @@
         <v>8005081500</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C178" s="3">
         <v>1751</v>
@@ -27639,7 +27639,7 @@
         <v>8005080600</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C179" s="3">
         <v>1054</v>
@@ -27662,7 +27662,7 @@
         <v>8001008535</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C180" s="3">
         <v>671.2</v>
@@ -27685,7 +27685,7 @@
         <v>8001008537</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C181" s="3">
         <v>227.8</v>
@@ -27708,7 +27708,7 @@
         <v>8005007703</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C182" s="3">
         <v>655.9</v>
@@ -27731,7 +27731,7 @@
         <v>8031001102</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C183" s="3">
         <v>5306</v>
@@ -27754,7 +27754,7 @@
         <v>8031000402</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C184" s="3">
         <v>2577</v>
@@ -27777,7 +27777,7 @@
         <v>8059010208</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C185" s="3">
         <v>721.6</v>
@@ -27800,7 +27800,7 @@
         <v>8005007704</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C186" s="3">
         <v>771.6</v>
@@ -27823,7 +27823,7 @@
         <v>8005082300</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C187" s="3">
         <v>527</v>
@@ -27846,7 +27846,7 @@
         <v>8059010405</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C188" s="3">
         <v>5358</v>
@@ -27869,7 +27869,7 @@
         <v>8059010402</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C189" s="3">
         <v>2739</v>
@@ -27892,7 +27892,7 @@
         <v>8059012027</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C190" s="3">
         <v>17.38</v>
@@ -27915,7 +27915,7 @@
         <v>8031000600</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C191" s="3">
         <v>7868</v>
@@ -27938,7 +27938,7 @@
         <v>8005007600</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C192" s="3">
         <v>1520</v>
@@ -27961,7 +27961,7 @@
         <v>8005007301</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C193" s="3">
         <v>771.1</v>
@@ -27984,7 +27984,7 @@
         <v>8005007500</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C194" s="3">
         <v>163.1</v>
@@ -28007,7 +28007,7 @@
         <v>8059011702</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C195" s="3">
         <v>1248</v>
@@ -28030,7 +28030,7 @@
         <v>8059011709</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C196" s="3">
         <v>500</v>
@@ -28053,7 +28053,7 @@
         <v>8059011710</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C197" s="3">
         <v>156.80000000000001</v>
@@ -28076,7 +28076,7 @@
         <v>8059009828</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C198" s="3">
         <v>587.9</v>
@@ -28099,7 +28099,7 @@
         <v>8013060800</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C199" s="3">
         <v>626</v>
@@ -28122,7 +28122,7 @@
         <v>8059009833</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C200" s="3">
         <v>685.4</v>
@@ -28145,7 +28145,7 @@
         <v>8059011904</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C201" s="3">
         <v>4516</v>
@@ -28168,7 +28168,7 @@
         <v>8059015900</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C202" s="3">
         <v>236.9</v>
@@ -28191,7 +28191,7 @@
         <v>8059011720</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C203" s="3">
         <v>192.6</v>
@@ -28214,7 +28214,7 @@
         <v>8059009849</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C204" s="3">
         <v>796.5</v>
@@ -28237,7 +28237,7 @@
         <v>8059010213</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C205" s="3">
         <v>1183</v>
@@ -28260,7 +28260,7 @@
         <v>8059010212</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C206" s="3">
         <v>1026</v>
@@ -28283,7 +28283,7 @@
         <v>8005081900</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C207" s="3">
         <v>247.8</v>
@@ -28306,7 +28306,7 @@
         <v>8059011804</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C208" s="3">
         <v>750.7</v>
@@ -28329,7 +28329,7 @@
         <v>8005006501</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C209" s="3">
         <v>11117</v>
@@ -28352,7 +28352,7 @@
         <v>8005006502</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C210" s="3">
         <v>4393</v>
@@ -28375,7 +28375,7 @@
         <v>8005005620</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C211" s="3">
         <v>2787</v>
@@ -28398,7 +28398,7 @@
         <v>8005006601</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C212" s="3">
         <v>2109</v>
@@ -28421,7 +28421,7 @@
         <v>8005082900</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C213" s="3">
         <v>39.33</v>
@@ -28444,7 +28444,7 @@
         <v>8013060700</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C214" s="3">
         <v>1933</v>
@@ -28467,7 +28467,7 @@
         <v>8013061300</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C215" s="3">
         <v>221.4</v>
@@ -28490,7 +28490,7 @@
         <v>8005007702</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C216" s="3">
         <v>212.5</v>
@@ -28513,7 +28513,7 @@
         <v>8031004602</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C217" s="3">
         <v>500</v>
@@ -28536,7 +28536,7 @@
         <v>8031012014</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C218" s="3">
         <v>1262</v>
@@ -28559,7 +28559,7 @@
         <v>8005083800</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" s="3">
         <v>1258</v>
@@ -28582,7 +28582,7 @@
         <v>8005083900</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" s="3">
         <v>355.4</v>
@@ -28605,7 +28605,7 @@
         <v>8059009835</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C221" s="3">
         <v>255.9</v>
@@ -28628,7 +28628,7 @@
         <v>8005081600</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C222" s="3">
         <v>784.7</v>
@@ -28651,7 +28651,7 @@
         <v>8005082500</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C223" s="3">
         <v>137.30000000000001</v>
@@ -28674,7 +28674,7 @@
         <v>8059009838</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C224" s="3">
         <v>566.9</v>
@@ -28697,7 +28697,7 @@
         <v>8005084000</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C225" s="3">
         <v>1091</v>
@@ -28720,7 +28720,7 @@
         <v>8005084700</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C226" s="3">
         <v>364.7</v>
@@ -28743,7 +28743,7 @@
         <v>8031008312</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C227" s="3">
         <v>1938</v>
@@ -28766,7 +28766,7 @@
         <v>8031008304</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C228" s="3">
         <v>238.2</v>
@@ -28789,7 +28789,7 @@
         <v>8031008386</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C229" s="3">
         <v>228.9</v>
@@ -28812,7 +28812,7 @@
         <v>8001008200</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C230" s="3">
         <v>1410</v>
@@ -28835,7 +28835,7 @@
         <v>8059012034</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C231" s="3">
         <v>40.909999999999997</v>
@@ -28858,7 +28858,7 @@
         <v>8059011000</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C232" s="3">
         <v>1228</v>
@@ -28881,7 +28881,7 @@
         <v>8001008309</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C233" s="3">
         <v>2392</v>
@@ -28904,7 +28904,7 @@
         <v>8059011601</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C234" s="3">
         <v>2408</v>
@@ -28927,7 +28927,7 @@
         <v>8059011602</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C235" s="3">
         <v>3260</v>
@@ -28950,7 +28950,7 @@
         <v>8001007801</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C236" s="3">
         <v>1601</v>
@@ -28973,7 +28973,7 @@
         <v>8001007802</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C237" s="3">
         <v>1577</v>
@@ -28996,7 +28996,7 @@
         <v>8059060400</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C238" s="3">
         <v>1435</v>
@@ -29019,7 +29019,7 @@
         <v>8059060300</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C239" s="3">
         <v>495.8</v>
@@ -29042,7 +29042,7 @@
         <v>8001009325</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C240" s="3">
         <v>1299</v>
@@ -29065,7 +29065,7 @@
         <v>8001009408</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C241" s="3">
         <v>887.8</v>
@@ -29088,7 +29088,7 @@
         <v>8001009326</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C242" s="3">
         <v>470.8</v>
@@ -29111,7 +29111,7 @@
         <v>8001009409</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C243" s="3">
         <v>193</v>
@@ -29134,7 +29134,7 @@
         <v>8001060200</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C244" s="3">
         <v>2357</v>
@@ -29157,7 +29157,7 @@
         <v>8001060100</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C245" s="3">
         <v>313.39999999999998</v>
@@ -29180,7 +29180,7 @@
         <v>8031001600</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C246" s="3">
         <v>5802</v>
@@ -29203,7 +29203,7 @@
         <v>8031003500</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C247" s="3">
         <v>2825</v>
@@ -29226,7 +29226,7 @@
         <v>8031003603</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C248" s="3">
         <v>2410</v>
@@ -29249,7 +29249,7 @@
         <v>8031003601</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C249" s="3">
         <v>2047</v>
@@ -29272,7 +29272,7 @@
         <v>8031002402</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250" s="3">
         <v>1437</v>
@@ -29295,7 +29295,7 @@
         <v>8031003602</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C251" s="3">
         <v>1274</v>
@@ -29318,7 +29318,7 @@
         <v>8001008353</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C252" s="3">
         <v>64.09</v>
@@ -29341,7 +29341,7 @@
         <v>8031004107</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C253" s="3">
         <v>2131</v>
@@ -29364,7 +29364,7 @@
         <v>8031004106</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C254" s="3">
         <v>1659</v>
@@ -29387,7 +29387,7 @@
         <v>8031008387</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C255" s="3">
         <v>101.2</v>
@@ -29410,7 +29410,7 @@
         <v>8031008391</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C256" s="3">
         <v>37.840000000000003</v>
@@ -29433,7 +29433,7 @@
         <v>8001008506</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C257" s="3">
         <v>10455</v>
@@ -29456,7 +29456,7 @@
         <v>8001009323</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C258" s="3">
         <v>2937</v>
@@ -29479,7 +29479,7 @@
         <v>8001008533</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C259" s="3">
         <v>825.5</v>
@@ -29502,7 +29502,7 @@
         <v>8001009304</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C260" s="3">
         <v>819.1</v>
@@ -29525,7 +29525,7 @@
         <v>8001008505</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C261" s="3">
         <v>384.4</v>
@@ -29548,7 +29548,7 @@
         <v>8059009841</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C262" s="3">
         <v>769.1</v>
@@ -29571,7 +29571,7 @@
         <v>8059010303</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C263" s="3">
         <v>303.10000000000002</v>
@@ -29594,7 +29594,7 @@
         <v>8059009840</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C264" s="3">
         <v>274.3</v>
@@ -29617,7 +29617,7 @@
         <v>8031015400</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C265" s="3">
         <v>2193</v>
@@ -29640,7 +29640,7 @@
         <v>8031000303</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C266" s="3">
         <v>2097</v>
@@ -29663,7 +29663,7 @@
         <v>8031001101</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C267" s="3">
         <v>1974</v>
@@ -29686,7 +29686,7 @@
         <v>8031000202</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C268" s="3">
         <v>1681</v>
@@ -29709,7 +29709,7 @@
         <v>8059010205</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C269" s="3">
         <v>173.5</v>
@@ -29732,7 +29732,7 @@
         <v>8031001403</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C270" s="3">
         <v>3459</v>
@@ -29755,7 +29755,7 @@
         <v>8005084600</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C271" s="3">
         <v>1081</v>
@@ -29778,7 +29778,7 @@
         <v>8031003001</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C272" s="3">
         <v>2374</v>
@@ -29801,7 +29801,7 @@
         <v>8005085700</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C273" s="3">
         <v>631.9</v>
@@ -29824,7 +29824,7 @@
         <v>8005084800</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C274" s="3">
         <v>134.69999999999999</v>
@@ -29847,7 +29847,7 @@
         <v>8005085800</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C275" s="3">
         <v>38.81</v>
@@ -29870,7 +29870,7 @@
         <v>8059009837</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C276" s="3">
         <v>45.79</v>
@@ -29893,7 +29893,7 @@
         <v>8059009839</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C277" s="3">
         <v>1367</v>
@@ -29916,7 +29916,7 @@
         <v>8001008538</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C278" s="3">
         <v>92.38</v>
@@ -29939,7 +29939,7 @@
         <v>8031003002</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C279" s="3">
         <v>5160</v>
@@ -29962,7 +29962,7 @@
         <v>8031001401</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C280" s="3">
         <v>3926</v>
@@ -29985,7 +29985,7 @@
         <v>8031001402</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C281" s="3">
         <v>151.9</v>
@@ -30008,7 +30008,7 @@
         <v>8001008308</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C282" s="3">
         <v>2061</v>
@@ -30031,7 +30031,7 @@
         <v>8005081200</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C283" s="3">
         <v>1204</v>
@@ -30054,7 +30054,7 @@
         <v>8005086000</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C284" s="3">
         <v>138</v>
@@ -30077,7 +30077,7 @@
         <v>8059010211</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C285" s="3">
         <v>625</v>
@@ -30100,7 +30100,7 @@
         <v>8059010210</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C286" s="3">
         <v>144.30000000000001</v>
@@ -30123,7 +30123,7 @@
         <v>8005083400</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C287" s="3">
         <v>480.1</v>
@@ -30146,7 +30146,7 @@
         <v>8059011721</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C288" s="3">
         <v>549.79999999999995</v>
@@ -30169,7 +30169,7 @@
         <v>8059011805</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C289" s="3">
         <v>7812</v>
@@ -30192,7 +30192,7 @@
         <v>8059011806</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C290" s="3">
         <v>451.4</v>
@@ -30215,7 +30215,7 @@
         <v>8059010209</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C291" s="3">
         <v>479.7</v>
@@ -30238,7 +30238,7 @@
         <v>8001009603</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C292" s="3">
         <v>1700</v>
@@ -30261,7 +30261,7 @@
         <v>8001009604</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C293" s="3">
         <v>1608</v>
@@ -30284,7 +30284,7 @@
         <v>8001009501</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C294" s="3">
         <v>1282</v>
@@ -30307,7 +30307,7 @@
         <v>8031005300</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C295" s="3">
         <v>14841</v>
@@ -30330,7 +30330,7 @@
         <v>8005005551</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C296" s="3">
         <v>5844</v>
@@ -30353,7 +30353,7 @@
         <v>8031003004</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C297" s="3">
         <v>5693</v>
@@ -30376,7 +30376,7 @@
         <v>8031015600</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C298" s="3">
         <v>1948</v>
@@ -30399,7 +30399,7 @@
         <v>8031002902</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C299" s="3">
         <v>1895</v>
@@ -30422,7 +30422,7 @@
         <v>8031004003</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C300" s="3">
         <v>1039</v>
@@ -30445,7 +30445,7 @@
         <v>8031006804</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C301" s="3">
         <v>18901</v>
@@ -30468,7 +30468,7 @@
         <v>8031006701</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C302" s="3">
         <v>5493</v>
@@ -30491,7 +30491,7 @@
         <v>8031006809</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C303" s="3">
         <v>2859</v>
@@ -30514,7 +30514,7 @@
         <v>8031006813</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C304" s="3">
         <v>2818</v>
@@ -30537,7 +30537,7 @@
         <v>8031006812</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C305" s="3">
         <v>2525</v>
@@ -30560,7 +30560,7 @@
         <v>8031006810</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C306" s="3">
         <v>2176</v>
@@ -30583,7 +30583,7 @@
         <v>8031006811</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C307" s="3">
         <v>1374</v>
@@ -30606,7 +30606,7 @@
         <v>8031006814</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C308" s="3">
         <v>936.7</v>
@@ -30629,7 +30629,7 @@
         <v>8031004801</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C309" s="3">
         <v>1261</v>
@@ -30652,7 +30652,7 @@
         <v>8031015700</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C310" s="3">
         <v>679</v>
@@ -30675,7 +30675,7 @@
         <v>8031004700</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C311" s="3">
         <v>459.5</v>
@@ -30698,7 +30698,7 @@
         <v>8031012001</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C312" s="3">
         <v>244.8</v>
@@ -30721,7 +30721,7 @@
         <v>8005083100</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C313" s="3">
         <v>146.69999999999999</v>
@@ -30744,7 +30744,7 @@
         <v>8031000800</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C314" s="3">
         <v>3480</v>
@@ -30767,7 +30767,7 @@
         <v>8005007201</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C315" s="3">
         <v>846.6</v>
@@ -30790,7 +30790,7 @@
         <v>8031000401</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C316" s="3">
         <v>764.6</v>
@@ -30813,7 +30813,7 @@
         <v>8013061400</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C317" s="3">
         <v>250.5</v>
@@ -30836,7 +30836,7 @@
         <v>8013060600</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C318" s="3">
         <v>101.2</v>
@@ -30859,7 +30859,7 @@
         <v>8005083200</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C319" s="3">
         <v>64.58</v>
@@ -30882,7 +30882,7 @@
         <v>8005083000</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C320" s="3">
         <v>13.89</v>
@@ -30905,7 +30905,7 @@
         <v>8001009203</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C321" s="3">
         <v>4257</v>
@@ -30928,7 +30928,7 @@
         <v>8001008529</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C322" s="3">
         <v>2052</v>
@@ -30951,7 +30951,7 @@
         <v>8001009202</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C323" s="3">
         <v>1894</v>
@@ -30974,7 +30974,7 @@
         <v>8001009318</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C324" s="3">
         <v>1786</v>
@@ -30997,7 +30997,7 @@
         <v>8001008547</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C325" s="3">
         <v>1343</v>
@@ -31020,7 +31020,7 @@
         <v>8001009322</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C326" s="3">
         <v>969.9</v>
@@ -31043,7 +31043,7 @@
         <v>8001009204</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C327" s="3">
         <v>958.5</v>
@@ -31066,7 +31066,7 @@
         <v>8001009316</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C328" s="3">
         <v>427.1</v>
@@ -31089,7 +31089,7 @@
         <v>8001008508</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C329" s="3">
         <v>352.2</v>
@@ -31112,7 +31112,7 @@
         <v>8001008546</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C330" s="3">
         <v>282.10000000000002</v>
@@ -31135,7 +31135,7 @@
         <v>8001008544</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C331" s="3">
         <v>165.8</v>
@@ -31158,7 +31158,7 @@
         <v>8001009104</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C332" s="3">
         <v>154.5</v>
@@ -31181,7 +31181,7 @@
         <v>8001009101</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C333" s="3">
         <v>96.23</v>
@@ -31204,7 +31204,7 @@
         <v>8001009103</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C334" s="3">
         <v>28.28</v>
@@ -31227,7 +31227,7 @@
         <v>8059011951</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C335" s="3">
         <v>132.69999999999999</v>
@@ -31250,7 +31250,7 @@
         <v>8005082600</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C336" s="3">
         <v>836.7</v>
@@ -31273,7 +31273,7 @@
         <v>8059011733</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C337" s="3">
         <v>14418</v>
@@ -31296,7 +31296,7 @@
         <v>8059011732</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C338" s="3">
         <v>6264</v>
@@ -31319,7 +31319,7 @@
         <v>8031004005</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C339" s="3">
         <v>2365</v>
@@ -31342,7 +31342,7 @@
         <v>8031003003</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C340" s="3">
         <v>1117</v>
@@ -31365,7 +31365,7 @@
         <v>8005080700</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C341" s="3">
         <v>3975</v>
@@ -31388,7 +31388,7 @@
         <v>8031001000</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C342" s="3">
         <v>5634</v>
@@ -31411,7 +31411,7 @@
         <v>8031000904</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C343" s="3">
         <v>150.30000000000001</v>
@@ -31434,7 +31434,7 @@
         <v>8031000905</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C344" s="3">
         <v>104.5</v>
@@ -31457,7 +31457,7 @@
         <v>8005080300</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C345" s="3">
         <v>3735</v>
@@ -31480,7 +31480,7 @@
         <v>8005080200</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C346" s="3">
         <v>952.1</v>
@@ -31503,7 +31503,7 @@
         <v>8031002901</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C347" s="3">
         <v>7052</v>
@@ -31526,7 +31526,7 @@
         <v>8031003401</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C348" s="3">
         <v>917.4</v>
@@ -31549,7 +31549,7 @@
         <v>8059009831</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C349" s="3">
         <v>3463</v>
@@ -31572,7 +31572,7 @@
         <v>8059009834</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C350" s="3">
         <v>1080</v>
@@ -31595,7 +31595,7 @@
         <v>8059009830</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C351" s="3">
         <v>1468</v>
@@ -31618,7 +31618,7 @@
         <v>8059060500</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C352" s="3">
         <v>386.1</v>
@@ -31641,7 +31641,7 @@
         <v>8059009829</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C353" s="3">
         <v>255.1</v>
@@ -31664,7 +31664,7 @@
         <v>8059009824</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C354" s="3">
         <v>227</v>
@@ -31687,7 +31687,7 @@
         <v>8059009823</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C355" s="3">
         <v>107.2</v>
@@ -31710,7 +31710,7 @@
         <v>8031001302</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C356" s="3">
         <v>1772</v>
@@ -31733,7 +31733,7 @@
         <v>8031000701</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C357" s="3">
         <v>1320</v>
@@ -31756,7 +31756,7 @@
         <v>8031000702</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C358" s="3">
         <v>1261</v>
@@ -31779,7 +31779,7 @@
         <v>8031004506</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C359" s="3">
         <v>1046</v>
@@ -31802,7 +31802,7 @@
         <v>8031001301</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C360" s="3">
         <v>967.4</v>
@@ -31825,7 +31825,7 @@
         <v>8031004505</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C361" s="3">
         <v>917.1</v>
@@ -31848,7 +31848,7 @@
         <v>8031004503</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C362" s="3">
         <v>173</v>
@@ -31871,7 +31871,7 @@
         <v>8059009827</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C363" s="3">
         <v>1306</v>
@@ -31894,7 +31894,7 @@
         <v>8059012043</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C364" s="3">
         <v>278.5</v>
@@ -31917,7 +31917,7 @@
         <v>8001009407</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C365" s="3">
         <v>4444</v>
@@ -31940,7 +31940,7 @@
         <v>8001009320</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C366" s="3">
         <v>2683</v>
@@ -31963,7 +31963,7 @@
         <v>8001009607</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C367" s="3">
         <v>2499</v>
@@ -31986,7 +31986,7 @@
         <v>8001009401</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C368" s="3">
         <v>911.6</v>
@@ -32009,7 +32009,7 @@
         <v>8001009309</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C369" s="3">
         <v>406.6</v>
@@ -32032,7 +32032,7 @@
         <v>8059010503</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C370" s="3">
         <v>1016</v>
@@ -32055,7 +32055,7 @@
         <v>8059010702</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C371" s="3">
         <v>527.1</v>
@@ -32078,7 +32078,7 @@
         <v>8005081300</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C372" s="3">
         <v>753.3</v>
@@ -32101,7 +32101,7 @@
         <v>8059012038</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C373" s="3">
         <v>139.5</v>
@@ -32124,7 +32124,7 @@
         <v>8059009851</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C374" s="3">
         <v>746.5</v>
@@ -32159,7 +32159,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -32167,15 +32167,15 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -32185,7 +32185,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6"/>
       <c r="E6" s="5"/>
@@ -32197,7 +32197,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>0.59722132103765679</v>
@@ -32211,13 +32211,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <v>0.35667330630196398</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -32227,7 +32227,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9">
         <v>0.35493927208714443</v>
@@ -32235,7 +32235,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>8461.3268634427804</v>
@@ -32243,7 +32243,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="7">
         <v>373</v>
@@ -32251,30 +32251,30 @@
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -32294,7 +32294,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>371</v>
@@ -32308,7 +32308,7 @@
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="7">
         <v>372</v>
@@ -32324,33 +32324,33 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>-42826.304495628523</v>
@@ -32379,7 +32379,7 @@
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="7">
         <v>111888.60068201376</v>
@@ -32408,19 +32408,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -32456,7 +32456,7 @@
         <v>5076.1602230609788</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -36539,8 +36539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDE4DF0-A427-E241-B4B7-3BDDA4D760AC}">
   <dimension ref="A1:J402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36550,7 +36550,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -36558,7 +36558,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>228</v>
@@ -36566,7 +36566,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E5" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -36576,7 +36576,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6"/>
       <c r="E6" s="5"/>
@@ -36588,7 +36588,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <v>0.6692625923339478</v>
@@ -36602,13 +36602,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <v>0.447912417497556</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -36618,7 +36618,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9">
         <v>0.44342390056664177</v>
@@ -36626,7 +36626,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <v>7859.6000649604721</v>
@@ -36634,7 +36634,7 @@
     </row>
     <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="7">
         <v>373</v>
@@ -36642,30 +36642,30 @@
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -36685,7 +36685,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>369</v>
@@ -36699,7 +36699,7 @@
     </row>
     <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="7">
         <v>372</v>
@@ -36715,33 +36715,33 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>-46877.600972813503</v>
@@ -36770,7 +36770,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="B21">
         <v>2.148948006280875E-2</v>
@@ -36799,7 +36799,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>102238.34698076973</v>
@@ -36828,7 +36828,7 @@
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7">
         <v>9.8767263848359939</v>
@@ -36857,19 +36857,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">

--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3898C-9C78-364E-8756-E18C5F1E5872}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E864854-E2E7-C440-B2D7-081BDDED6A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" activeTab="2" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" activeTab="1" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3480,7 +3480,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Houshold Income</a:t>
+                  <a:t>Household Income</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -32151,8 +32151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE2294-EAC6-AD4D-9F13-5D426A5824A4}">
   <dimension ref="A1:J400"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36539,8 +36539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDE4DF0-A427-E241-B4B7-3BDDA4D760AC}">
   <dimension ref="A1:J402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data Analysis.xlsx
+++ b/Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chitis/Dropbox/Johns Hopkins/Spring 2021/Decision Analytics/Mini Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E864854-E2E7-C440-B2D7-081BDDED6A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5963353-A12D-5B4B-944B-757569FDD6EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="16280" activeTab="1" xr2:uid="{A6B0C64E-293E-7F49-BF20-66FEFCEDBF0C}"/>
   </bookViews>
@@ -914,7 +914,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Income and Employment Rates in Colorado</a:t>
+              <a:t> Income and Employment Rates in Colorado Tracts</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -30003,7 +30003,7 @@
         <v>34810</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>8001008308</v>
       </c>
@@ -32151,8 +32151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EE2294-EAC6-AD4D-9F13-5D426A5824A4}">
   <dimension ref="A1:J400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="166" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
